--- a/medicine/Psychotrope/Royal_Brackla/Royal_Brackla.xlsx
+++ b/medicine/Psychotrope/Royal_Brackla/Royal_Brackla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Royal Brackla est une distillerie de whisky fondée en 1812 à Cawdor près de Nairn en Écosse.
 La distillerie a été construite en 1812 par William Fraser sur les terres du château de Cawdor, lieu de décès du Roi Duncan dans le Macbeth de William Shakespeare.
@@ -515,15 +527,86 @@
           <t>La production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Royal Brackla possède une cuve de brassage en acier inoxydable de 12.5 tonnes et huit cuves de fermentations dont six en pin d'Oregon et deux en acier inoxydable. La distillation se fait au moyen de quatre alambics, deux wash stills de 44 000 litres et deux spirit stills de 42 000 litres chacun.
-Versions officielles
-Le premier embouteillage en tant que single malt whisky a lieu en 1993.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Royal_Brackla</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Royal_Brackla</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>La production</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Versions officielles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le premier embouteillage en tant que single malt whisky a lieu en 1993.
 Royal Brackla 10 ans (série Flora &amp; Fauna)
-Royal Brackla 25 ans
-Embouteillages indépendants
-Royal Brackla 12 ans (1995) Douglas Laing
+Royal Brackla 25 ans</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Royal_Brackla</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Royal_Brackla</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>La production</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Embouteillages indépendants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Royal Brackla 12 ans (1995) Douglas Laing
 Royal Brackla 15 ans Rhum finish Cadenheads
 Royal Brackla 1991 46° Gordon &amp; MacPhail
 Sur les autres projets Wikimedia :
